--- a/Team-Data/2014-15/1-27-2014-15.xlsx
+++ b/Team-Data/2014-15/1-27-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>7.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
         <v>1</v>
@@ -756,7 +823,7 @@
         <v>2</v>
       </c>
       <c r="AH2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI2" t="n">
         <v>11</v>
@@ -774,13 +841,13 @@
         <v>8</v>
       </c>
       <c r="AN2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO2" t="n">
         <v>13</v>
       </c>
       <c r="AP2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ2" t="n">
         <v>8</v>
@@ -798,7 +865,7 @@
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW2" t="n">
         <v>5</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-27-2014-15</t>
+          <t>2015-01-27</t>
         </is>
       </c>
     </row>
@@ -935,7 +1002,7 @@
         <v>20</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH3" t="n">
         <v>6</v>
@@ -965,7 +1032,7 @@
         <v>27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR3" t="n">
         <v>19</v>
@@ -977,7 +1044,7 @@
         <v>14</v>
       </c>
       <c r="AU3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV3" t="n">
         <v>16</v>
@@ -986,19 +1053,19 @@
         <v>10</v>
       </c>
       <c r="AX3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY3" t="n">
         <v>24</v>
       </c>
       <c r="AZ3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA3" t="n">
         <v>30</v>
       </c>
       <c r="BB3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC3" t="n">
         <v>17</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-27-2014-15</t>
+          <t>2015-01-27</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-3.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE4" t="n">
         <v>19</v>
@@ -1123,7 +1190,7 @@
         <v>7</v>
       </c>
       <c r="AI4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ4" t="n">
         <v>25</v>
@@ -1159,13 +1226,13 @@
         <v>23</v>
       </c>
       <c r="AU4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV4" t="n">
         <v>17</v>
       </c>
       <c r="AW4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX4" t="n">
         <v>23</v>
@@ -1177,10 +1244,10 @@
         <v>14</v>
       </c>
       <c r="BA4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC4" t="n">
         <v>25</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-27-2014-15</t>
+          <t>2015-01-27</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-2.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
         <v>18</v>
@@ -1329,13 +1396,13 @@
         <v>12</v>
       </c>
       <c r="AQ5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AT5" t="n">
         <v>10</v>
@@ -1353,7 +1420,7 @@
         <v>8</v>
       </c>
       <c r="AY5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ5" t="n">
         <v>4</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-27-2014-15</t>
+          <t>2015-01-27</t>
         </is>
       </c>
     </row>
@@ -1394,25 +1461,25 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" t="n">
         <v>17</v>
       </c>
       <c r="G6" t="n">
-        <v>0.638</v>
+        <v>0.63</v>
       </c>
       <c r="H6" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I6" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J6" t="n">
-        <v>82.7</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K6" t="n">
         <v>0.444</v>
@@ -1421,40 +1488,40 @@
         <v>7.7</v>
       </c>
       <c r="M6" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="N6" t="n">
-        <v>0.363</v>
+        <v>0.366</v>
       </c>
       <c r="O6" t="n">
         <v>20.8</v>
       </c>
       <c r="P6" t="n">
-        <v>26.5</v>
+        <v>26.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.784</v>
+        <v>0.782</v>
       </c>
       <c r="R6" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="S6" t="n">
-        <v>33.5</v>
+        <v>33.3</v>
       </c>
       <c r="T6" t="n">
-        <v>45.6</v>
+        <v>45.3</v>
       </c>
       <c r="U6" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="V6" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="W6" t="n">
         <v>6.3</v>
       </c>
       <c r="X6" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="Y6" t="n">
         <v>5.5</v>
@@ -1463,19 +1530,19 @@
         <v>18.4</v>
       </c>
       <c r="AA6" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>102</v>
+        <v>101.8</v>
       </c>
       <c r="AC6" t="n">
         <v>2.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AF6" t="n">
         <v>10</v>
@@ -1484,13 +1551,13 @@
         <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AI6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK6" t="n">
         <v>19</v>
@@ -1502,7 +1569,7 @@
         <v>16</v>
       </c>
       <c r="AN6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO6" t="n">
         <v>2</v>
@@ -1514,19 +1581,19 @@
         <v>3</v>
       </c>
       <c r="AR6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AT6" t="n">
         <v>5</v>
       </c>
-      <c r="AS6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>4</v>
-      </c>
       <c r="AU6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW6" t="n">
         <v>28</v>
@@ -1535,7 +1602,7 @@
         <v>1</v>
       </c>
       <c r="AY6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ6" t="n">
         <v>3</v>
@@ -1544,7 +1611,7 @@
         <v>2</v>
       </c>
       <c r="BB6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BC6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-27-2014-15</t>
+          <t>2015-01-27</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" t="n">
         <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.556</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
@@ -1594,43 +1661,43 @@
         <v>37.2</v>
       </c>
       <c r="J7" t="n">
-        <v>82.2</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>0.453</v>
+        <v>0.454</v>
       </c>
       <c r="L7" t="n">
         <v>8.6</v>
       </c>
       <c r="M7" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="N7" t="n">
-        <v>0.35</v>
+        <v>0.352</v>
       </c>
       <c r="O7" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="P7" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.758</v>
+        <v>0.755</v>
       </c>
       <c r="R7" t="n">
         <v>11.3</v>
       </c>
       <c r="S7" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="T7" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U7" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="V7" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="W7" t="n">
         <v>7.2</v>
@@ -1639,34 +1706,34 @@
         <v>4.1</v>
       </c>
       <c r="Y7" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="AA7" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB7" t="n">
-        <v>101.8</v>
+        <v>101.7</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF7" t="n">
         <v>12</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
         <v>17</v>
@@ -1684,34 +1751,34 @@
         <v>10</v>
       </c>
       <c r="AN7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP7" t="n">
         <v>7</v>
       </c>
       <c r="AQ7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR7" t="n">
         <v>12</v>
       </c>
       <c r="AS7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU7" t="n">
         <v>12</v>
       </c>
       <c r="AV7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AW7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX7" t="n">
         <v>27</v>
@@ -1723,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="BA7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB7" t="n">
         <v>12</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-27-2014-15</t>
+          <t>2015-01-27</t>
         </is>
       </c>
     </row>
@@ -1785,19 +1852,19 @@
         <v>9.4</v>
       </c>
       <c r="M8" t="n">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
       <c r="N8" t="n">
-        <v>0.354</v>
+        <v>0.356</v>
       </c>
       <c r="O8" t="n">
-        <v>17.1</v>
+        <v>17.3</v>
       </c>
       <c r="P8" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.763</v>
+        <v>0.765</v>
       </c>
       <c r="R8" t="n">
         <v>10.7</v>
@@ -1812,7 +1879,7 @@
         <v>23.3</v>
       </c>
       <c r="V8" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="W8" t="n">
         <v>8</v>
@@ -1821,22 +1888,22 @@
         <v>4.9</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Z8" t="n">
         <v>20.2</v>
       </c>
       <c r="AA8" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AB8" t="n">
-        <v>107.6</v>
+        <v>107.8</v>
       </c>
       <c r="AC8" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="AD8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
         <v>7</v>
@@ -1845,16 +1912,16 @@
         <v>7</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK8" t="n">
         <v>5</v>
@@ -1863,19 +1930,19 @@
         <v>7</v>
       </c>
       <c r="AM8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN8" t="n">
         <v>12</v>
       </c>
       <c r="AO8" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AP8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR8" t="n">
         <v>16</v>
@@ -1884,7 +1951,7 @@
         <v>22</v>
       </c>
       <c r="AT8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
@@ -1911,7 +1978,7 @@
         <v>2</v>
       </c>
       <c r="BC8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-27-2014-15</t>
+          <t>2015-01-27</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-2.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
         <v>19</v>
@@ -2030,16 +2097,16 @@
         <v>20</v>
       </c>
       <c r="AH9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI9" t="n">
         <v>13</v>
       </c>
       <c r="AJ9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL9" t="n">
         <v>14</v>
@@ -2051,7 +2118,7 @@
         <v>26</v>
       </c>
       <c r="AO9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP9" t="n">
         <v>3</v>
@@ -2066,19 +2133,19 @@
         <v>10</v>
       </c>
       <c r="AT9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AV9" t="n">
         <v>13</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>14</v>
       </c>
       <c r="AW9" t="n">
         <v>24</v>
       </c>
       <c r="AX9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY9" t="n">
         <v>27</v>
@@ -2087,10 +2154,10 @@
         <v>30</v>
       </c>
       <c r="BA9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC9" t="n">
         <v>22</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-27-2014-15</t>
+          <t>2015-01-27</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" t="n">
         <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10" t="n">
-        <v>0.37</v>
+        <v>0.378</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
@@ -2140,7 +2207,7 @@
         <v>36.6</v>
       </c>
       <c r="J10" t="n">
-        <v>86</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="K10" t="n">
         <v>0.426</v>
@@ -2161,31 +2228,31 @@
         <v>23</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.7</v>
+        <v>0.699</v>
       </c>
       <c r="R10" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="S10" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="T10" t="n">
-        <v>45.9</v>
+        <v>45.8</v>
       </c>
       <c r="U10" t="n">
         <v>21.2</v>
       </c>
       <c r="V10" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="W10" t="n">
         <v>7.8</v>
       </c>
       <c r="X10" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z10" t="n">
         <v>19.2</v>
@@ -2194,13 +2261,13 @@
         <v>19.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>98.09999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2.1</v>
+        <v>-2</v>
       </c>
       <c r="AD10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
@@ -2209,16 +2276,16 @@
         <v>23</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH10" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AK10" t="n">
         <v>28</v>
@@ -2230,7 +2297,7 @@
         <v>7</v>
       </c>
       <c r="AN10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO10" t="n">
         <v>24</v>
@@ -2254,19 +2321,19 @@
         <v>16</v>
       </c>
       <c r="AV10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AW10" t="n">
         <v>12</v>
       </c>
       <c r="AX10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY10" t="n">
         <v>16</v>
       </c>
       <c r="AZ10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA10" t="n">
         <v>23</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-27-2014-15</t>
+          <t>2015-01-27</t>
         </is>
       </c>
     </row>
@@ -2304,58 +2371,58 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" t="n">
         <v>36</v>
       </c>
       <c r="F11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G11" t="n">
-        <v>0.837</v>
+        <v>0.857</v>
       </c>
       <c r="H11" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="I11" t="n">
-        <v>42</v>
+        <v>41.9</v>
       </c>
       <c r="J11" t="n">
-        <v>86.7</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>0.484</v>
+        <v>0.486</v>
       </c>
       <c r="L11" t="n">
         <v>10.3</v>
       </c>
       <c r="M11" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="N11" t="n">
-        <v>0.387</v>
+        <v>0.39</v>
       </c>
       <c r="O11" t="n">
-        <v>16.8</v>
+        <v>17.1</v>
       </c>
       <c r="P11" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.778</v>
+        <v>0.781</v>
       </c>
       <c r="R11" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="S11" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="T11" t="n">
-        <v>45</v>
+        <v>44.9</v>
       </c>
       <c r="U11" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="V11" t="n">
         <v>15.1</v>
@@ -2364,13 +2431,13 @@
         <v>9.4</v>
       </c>
       <c r="X11" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA11" t="n">
         <v>19</v>
@@ -2379,10 +2446,10 @@
         <v>111.1</v>
       </c>
       <c r="AC11" t="n">
-        <v>11.5</v>
+        <v>11.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE11" t="n">
         <v>2</v>
@@ -2394,13 +2461,13 @@
         <v>1</v>
       </c>
       <c r="AH11" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AI11" t="n">
         <v>1</v>
       </c>
       <c r="AJ11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AK11" t="n">
         <v>1</v>
@@ -2409,19 +2476,19 @@
         <v>2</v>
       </c>
       <c r="AM11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP11" t="n">
         <v>23</v>
       </c>
       <c r="AQ11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AR11" t="n">
         <v>24</v>
@@ -2439,7 +2506,7 @@
         <v>25</v>
       </c>
       <c r="AW11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX11" t="n">
         <v>2</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-27-2014-15</t>
+          <t>2015-01-27</t>
         </is>
       </c>
     </row>
@@ -2486,52 +2553,52 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E12" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F12" t="n">
         <v>14</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6820000000000001</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="J12" t="n">
-        <v>83.40000000000001</v>
+        <v>83.2</v>
       </c>
       <c r="K12" t="n">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="L12" t="n">
         <v>11.8</v>
       </c>
       <c r="M12" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="N12" t="n">
-        <v>0.351</v>
+        <v>0.352</v>
       </c>
       <c r="O12" t="n">
-        <v>17.5</v>
+        <v>17.9</v>
       </c>
       <c r="P12" t="n">
-        <v>24.4</v>
+        <v>24.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.719</v>
+        <v>0.717</v>
       </c>
       <c r="R12" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S12" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="T12" t="n">
         <v>43.4</v>
@@ -2543,7 +2610,7 @@
         <v>17.4</v>
       </c>
       <c r="W12" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="X12" t="n">
         <v>4.5</v>
@@ -2552,37 +2619,37 @@
         <v>5.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
       <c r="AB12" t="n">
-        <v>102.9</v>
+        <v>103</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="AD12" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="AE12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AF12" t="n">
         <v>5</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH12" t="n">
         <v>13</v>
       </c>
       <c r="AI12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK12" t="n">
         <v>21</v>
@@ -2594,19 +2661,19 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
       </c>
       <c r="AR12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS12" t="n">
         <v>21</v>
@@ -2615,7 +2682,7 @@
         <v>13</v>
       </c>
       <c r="AU12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV12" t="n">
         <v>29</v>
@@ -2627,16 +2694,16 @@
         <v>20</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ12" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BA12" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BB12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC12" t="n">
         <v>9</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-27-2014-15</t>
+          <t>2015-01-27</t>
         </is>
       </c>
     </row>
@@ -2668,25 +2735,25 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
       </c>
       <c r="F13" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13" t="n">
-        <v>0.34</v>
+        <v>0.348</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
       </c>
       <c r="I13" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="J13" t="n">
-        <v>83.8</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K13" t="n">
         <v>0.429</v>
@@ -2698,7 +2765,7 @@
         <v>20.8</v>
       </c>
       <c r="N13" t="n">
-        <v>0.326</v>
+        <v>0.325</v>
       </c>
       <c r="O13" t="n">
         <v>16.2</v>
@@ -2707,19 +2774,19 @@
         <v>21.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.754</v>
+        <v>0.755</v>
       </c>
       <c r="R13" t="n">
         <v>10.9</v>
       </c>
       <c r="S13" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="T13" t="n">
-        <v>45.1</v>
+        <v>45.2</v>
       </c>
       <c r="U13" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V13" t="n">
         <v>14.7</v>
@@ -2737,16 +2804,16 @@
         <v>21.1</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AB13" t="n">
-        <v>94.90000000000001</v>
+        <v>95</v>
       </c>
       <c r="AC13" t="n">
-        <v>-2.4</v>
+        <v>-2.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE13" t="n">
         <v>22</v>
@@ -2758,19 +2825,19 @@
         <v>25</v>
       </c>
       <c r="AH13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK13" t="n">
         <v>27</v>
       </c>
       <c r="AL13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM13" t="n">
         <v>18</v>
@@ -2785,7 +2852,7 @@
         <v>24</v>
       </c>
       <c r="AQ13" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AR13" t="n">
         <v>14</v>
@@ -2806,19 +2873,19 @@
         <v>29</v>
       </c>
       <c r="AX13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY13" t="n">
         <v>17</v>
       </c>
       <c r="AZ13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA13" t="n">
         <v>10</v>
       </c>
       <c r="BB13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC13" t="n">
         <v>19</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-27-2014-15</t>
+          <t>2015-01-27</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>7.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE14" t="n">
         <v>5</v>
@@ -2946,10 +3013,10 @@
         <v>5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL14" t="n">
         <v>4</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-27-2014-15</t>
+          <t>2015-01-27</t>
         </is>
       </c>
     </row>
@@ -3047,28 +3114,28 @@
         <v>48.3</v>
       </c>
       <c r="I15" t="n">
-        <v>37.2</v>
+        <v>37</v>
       </c>
       <c r="J15" t="n">
-        <v>85.3</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.437</v>
+        <v>0.435</v>
       </c>
       <c r="L15" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M15" t="n">
-        <v>19.6</v>
+        <v>19.3</v>
       </c>
       <c r="N15" t="n">
-        <v>0.347</v>
+        <v>0.348</v>
       </c>
       <c r="O15" t="n">
-        <v>18.1</v>
+        <v>18.5</v>
       </c>
       <c r="P15" t="n">
-        <v>24.4</v>
+        <v>24.9</v>
       </c>
       <c r="Q15" t="n">
         <v>0.744</v>
@@ -3077,10 +3144,10 @@
         <v>11.4</v>
       </c>
       <c r="S15" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T15" t="n">
-        <v>43.2</v>
+        <v>43.1</v>
       </c>
       <c r="U15" t="n">
         <v>20.5</v>
@@ -3098,25 +3165,25 @@
         <v>4.4</v>
       </c>
       <c r="Z15" t="n">
-        <v>21</v>
+        <v>21.3</v>
       </c>
       <c r="AA15" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="AB15" t="n">
         <v>99.3</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.6</v>
+        <v>-6.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
       </c>
       <c r="AF15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG15" t="n">
         <v>27</v>
@@ -3128,28 +3195,28 @@
         <v>18</v>
       </c>
       <c r="AJ15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AK15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM15" t="n">
         <v>22</v>
       </c>
       <c r="AN15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP15" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AQ15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR15" t="n">
         <v>11</v>
@@ -3164,22 +3231,22 @@
         <v>22</v>
       </c>
       <c r="AV15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW15" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AX15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY15" t="n">
         <v>9</v>
       </c>
       <c r="AZ15" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA15" t="n">
         <v>17</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>21</v>
       </c>
       <c r="BB15" t="n">
         <v>19</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-27-2014-15</t>
+          <t>2015-01-27</t>
         </is>
       </c>
     </row>
@@ -3214,52 +3281,52 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F16" t="n">
         <v>12</v>
       </c>
       <c r="G16" t="n">
-        <v>0.733</v>
+        <v>0.727</v>
       </c>
       <c r="H16" t="n">
         <v>49</v>
       </c>
       <c r="I16" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="J16" t="n">
-        <v>83.2</v>
+        <v>83.3</v>
       </c>
       <c r="K16" t="n">
-        <v>0.466</v>
+        <v>0.465</v>
       </c>
       <c r="L16" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="M16" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="N16" t="n">
-        <v>0.351</v>
+        <v>0.348</v>
       </c>
       <c r="O16" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P16" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="Q16" t="n">
         <v>0.78</v>
       </c>
       <c r="R16" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S16" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="T16" t="n">
         <v>42.7</v>
@@ -3271,28 +3338,28 @@
         <v>13.1</v>
       </c>
       <c r="W16" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X16" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB16" t="n">
-        <v>101.7</v>
+        <v>101.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3310,7 +3377,7 @@
         <v>7</v>
       </c>
       <c r="AJ16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK16" t="n">
         <v>7</v>
@@ -3322,7 +3389,7 @@
         <v>27</v>
       </c>
       <c r="AN16" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AO16" t="n">
         <v>7</v>
@@ -3331,7 +3398,7 @@
         <v>13</v>
       </c>
       <c r="AQ16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR16" t="n">
         <v>23</v>
@@ -3352,19 +3419,19 @@
         <v>8</v>
       </c>
       <c r="AX16" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AY16" t="n">
         <v>20</v>
       </c>
       <c r="AZ16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA16" t="n">
         <v>11</v>
       </c>
       <c r="BB16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC16" t="n">
         <v>7</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-27-2014-15</t>
+          <t>2015-01-27</t>
         </is>
       </c>
     </row>
@@ -3396,28 +3463,28 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17" t="n">
         <v>20</v>
       </c>
       <c r="F17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G17" t="n">
-        <v>0.444</v>
+        <v>0.455</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
       </c>
       <c r="I17" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="J17" t="n">
         <v>74.59999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L17" t="n">
         <v>6.9</v>
@@ -3432,49 +3499,49 @@
         <v>17.7</v>
       </c>
       <c r="P17" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.742</v>
+        <v>0.743</v>
       </c>
       <c r="R17" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="S17" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="T17" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="U17" t="n">
         <v>19.9</v>
       </c>
       <c r="V17" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W17" t="n">
         <v>8.1</v>
       </c>
       <c r="X17" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y17" t="n">
         <v>4.4</v>
       </c>
       <c r="Z17" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>93.09999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="AC17" t="n">
         <v>-3.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
@@ -3495,7 +3562,7 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL17" t="n">
         <v>21</v>
@@ -3507,7 +3574,7 @@
         <v>21</v>
       </c>
       <c r="AO17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="n">
         <v>11</v>
@@ -3525,16 +3592,16 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW17" t="n">
         <v>9</v>
       </c>
       <c r="AX17" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AY17" t="n">
         <v>8</v>
@@ -3543,7 +3610,7 @@
         <v>13</v>
       </c>
       <c r="BA17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB17" t="n">
         <v>28</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-27-2014-15</t>
+          <t>2015-01-27</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F18" t="n">
         <v>22</v>
       </c>
       <c r="G18" t="n">
-        <v>0.511</v>
+        <v>0.5</v>
       </c>
       <c r="H18" t="n">
         <v>48.6</v>
@@ -3596,43 +3663,43 @@
         <v>37.7</v>
       </c>
       <c r="J18" t="n">
-        <v>81.09999999999999</v>
+        <v>81.3</v>
       </c>
       <c r="K18" t="n">
-        <v>0.465</v>
+        <v>0.463</v>
       </c>
       <c r="L18" t="n">
         <v>7</v>
       </c>
       <c r="M18" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="N18" t="n">
-        <v>0.374</v>
+        <v>0.37</v>
       </c>
       <c r="O18" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="P18" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.77</v>
+        <v>0.771</v>
       </c>
       <c r="R18" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S18" t="n">
         <v>30.8</v>
       </c>
       <c r="T18" t="n">
-        <v>41.1</v>
+        <v>41.3</v>
       </c>
       <c r="U18" t="n">
         <v>23.5</v>
       </c>
       <c r="V18" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="W18" t="n">
         <v>9.4</v>
@@ -3641,34 +3708,34 @@
         <v>4.6</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z18" t="n">
         <v>22.6</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.5</v>
+        <v>98.2</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="AE18" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AF18" t="n">
         <v>15</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI18" t="n">
         <v>14</v>
@@ -3680,13 +3747,13 @@
         <v>8</v>
       </c>
       <c r="AL18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO18" t="n">
         <v>25</v>
@@ -3695,13 +3762,13 @@
         <v>26</v>
       </c>
       <c r="AQ18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT18" t="n">
         <v>25</v>
@@ -3713,13 +3780,13 @@
         <v>28</v>
       </c>
       <c r="AW18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX18" t="n">
         <v>15</v>
       </c>
       <c r="AY18" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ18" t="n">
         <v>29</v>
@@ -3731,7 +3798,7 @@
         <v>20</v>
       </c>
       <c r="BC18" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-27-2014-15</t>
+          <t>2015-01-27</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-9.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE19" t="n">
         <v>30</v>
@@ -3850,13 +3917,13 @@
         <v>30</v>
       </c>
       <c r="AH19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI19" t="n">
         <v>19</v>
       </c>
       <c r="AJ19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK19" t="n">
         <v>26</v>
@@ -3871,13 +3938,13 @@
         <v>22</v>
       </c>
       <c r="AO19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP19" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AQ19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR19" t="n">
         <v>3</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-27-2014-15</t>
+          <t>2015-01-27</t>
         </is>
       </c>
     </row>
@@ -3942,85 +4009,85 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F20" t="n">
         <v>21</v>
       </c>
       <c r="G20" t="n">
-        <v>0.523</v>
+        <v>0.533</v>
       </c>
       <c r="H20" t="n">
         <v>48.2</v>
       </c>
       <c r="I20" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="J20" t="n">
-        <v>83.5</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L20" t="n">
         <v>6.5</v>
       </c>
       <c r="M20" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="N20" t="n">
-        <v>0.345</v>
+        <v>0.343</v>
       </c>
       <c r="O20" t="n">
         <v>17.1</v>
       </c>
       <c r="P20" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.763</v>
+        <v>0.755</v>
       </c>
       <c r="R20" t="n">
-        <v>11.6</v>
+        <v>11.9</v>
       </c>
       <c r="S20" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="T20" t="n">
-        <v>43.5</v>
+        <v>44</v>
       </c>
       <c r="U20" t="n">
         <v>21.2</v>
       </c>
       <c r="V20" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="W20" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X20" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z20" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AB20" t="n">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="AE20" t="n">
         <v>14</v>
@@ -4038,55 +4105,55 @@
         <v>10</v>
       </c>
       <c r="AJ20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL20" t="n">
         <v>25</v>
       </c>
       <c r="AM20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO20" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP20" t="n">
         <v>18</v>
       </c>
-      <c r="AP20" t="n">
-        <v>20</v>
-      </c>
       <c r="AQ20" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AR20" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AS20" t="n">
         <v>17</v>
       </c>
       <c r="AT20" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AU20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV20" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW20" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AX20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY20" t="n">
         <v>29</v>
       </c>
       <c r="AZ20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA20" t="n">
         <v>27</v>
@@ -4095,7 +4162,7 @@
         <v>16</v>
       </c>
       <c r="BC20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-27-2014-15</t>
+          <t>2015-01-27</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-8</v>
       </c>
       <c r="AD21" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE21" t="n">
         <v>28</v>
@@ -4241,7 +4308,7 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR21" t="n">
         <v>17</v>
@@ -4259,7 +4326,7 @@
         <v>20</v>
       </c>
       <c r="AW21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX21" t="n">
         <v>28</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-27-2014-15</t>
+          <t>2015-01-27</t>
         </is>
       </c>
     </row>
@@ -4384,10 +4451,10 @@
         <v>1.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF22" t="n">
         <v>15</v>
@@ -4396,13 +4463,13 @@
         <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI22" t="n">
         <v>15</v>
       </c>
       <c r="AJ22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK22" t="n">
         <v>22</v>
@@ -4423,7 +4490,7 @@
         <v>14</v>
       </c>
       <c r="AQ22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR22" t="n">
         <v>4</v>
@@ -4441,7 +4508,7 @@
         <v>22</v>
       </c>
       <c r="AW22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX22" t="n">
         <v>3</v>
@@ -4450,16 +4517,16 @@
         <v>10</v>
       </c>
       <c r="AZ22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB22" t="n">
         <v>18</v>
       </c>
       <c r="BC22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-27-2014-15</t>
+          <t>2015-01-27</t>
         </is>
       </c>
     </row>
@@ -4488,82 +4555,82 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
       </c>
       <c r="F23" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G23" t="n">
-        <v>0.319</v>
+        <v>0.313</v>
       </c>
       <c r="H23" t="n">
         <v>48.1</v>
       </c>
       <c r="I23" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J23" t="n">
-        <v>81.59999999999999</v>
+        <v>81.7</v>
       </c>
       <c r="K23" t="n">
-        <v>0.458</v>
+        <v>0.456</v>
       </c>
       <c r="L23" t="n">
         <v>7</v>
       </c>
       <c r="M23" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="N23" t="n">
         <v>0.364</v>
       </c>
       <c r="O23" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="P23" t="n">
         <v>19.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.73</v>
+        <v>0.731</v>
       </c>
       <c r="R23" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S23" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T23" t="n">
-        <v>40.1</v>
+        <v>40.4</v>
       </c>
       <c r="U23" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V23" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W23" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X23" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="Z23" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>96</v>
+        <v>95.7</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.7</v>
+        <v>-6</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -4587,16 +4654,16 @@
         <v>23</v>
       </c>
       <c r="AK23" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AL23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM23" t="n">
         <v>23</v>
       </c>
       <c r="AN23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO23" t="n">
         <v>29</v>
@@ -4605,7 +4672,7 @@
         <v>29</v>
       </c>
       <c r="AQ23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR23" t="n">
         <v>28</v>
@@ -4617,10 +4684,10 @@
         <v>28</v>
       </c>
       <c r="AU23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW23" t="n">
         <v>15</v>
@@ -4629,7 +4696,7 @@
         <v>30</v>
       </c>
       <c r="AY23" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ23" t="n">
         <v>22</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-27-2014-15</t>
+          <t>2015-01-27</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-12.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4760,7 +4827,7 @@
         <v>28</v>
       </c>
       <c r="AH24" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI24" t="n">
         <v>30</v>
@@ -4772,7 +4839,7 @@
         <v>30</v>
       </c>
       <c r="AL24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM24" t="n">
         <v>11</v>
@@ -4784,13 +4851,13 @@
         <v>21</v>
       </c>
       <c r="AP24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ24" t="n">
         <v>30</v>
       </c>
       <c r="AR24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS24" t="n">
         <v>27</v>
@@ -4817,7 +4884,7 @@
         <v>21</v>
       </c>
       <c r="BA24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-27-2014-15</t>
+          <t>2015-01-27</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>2.1</v>
       </c>
       <c r="AD25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE25" t="n">
         <v>12</v>
@@ -4948,7 +5015,7 @@
         <v>3</v>
       </c>
       <c r="AJ25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK25" t="n">
         <v>6</v>
@@ -4963,7 +5030,7 @@
         <v>10</v>
       </c>
       <c r="AO25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP25" t="n">
         <v>22</v>
@@ -4996,7 +5063,7 @@
         <v>5</v>
       </c>
       <c r="AZ25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA25" t="n">
         <v>13</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-27-2014-15</t>
+          <t>2015-01-27</t>
         </is>
       </c>
     </row>
@@ -5112,10 +5179,10 @@
         <v>5.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF26" t="n">
         <v>4</v>
@@ -5124,13 +5191,13 @@
         <v>4</v>
       </c>
       <c r="AH26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK26" t="n">
         <v>18</v>
@@ -5142,7 +5209,7 @@
         <v>2</v>
       </c>
       <c r="AN26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO26" t="n">
         <v>27</v>
@@ -5175,7 +5242,7 @@
         <v>9</v>
       </c>
       <c r="AY26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ26" t="n">
         <v>6</v>
@@ -5187,7 +5254,7 @@
         <v>7</v>
       </c>
       <c r="BC26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-27-2014-15</t>
+          <t>2015-01-27</t>
         </is>
       </c>
     </row>
@@ -5303,13 +5370,13 @@
         <v>20</v>
       </c>
       <c r="AG27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH27" t="n">
         <v>4</v>
       </c>
       <c r="AI27" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AJ27" t="n">
         <v>28</v>
@@ -5339,7 +5406,7 @@
         <v>13</v>
       </c>
       <c r="AS27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT27" t="n">
         <v>7</v>
@@ -5366,7 +5433,7 @@
         <v>1</v>
       </c>
       <c r="BB27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC27" t="n">
         <v>20</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-27-2014-15</t>
+          <t>2015-01-27</t>
         </is>
       </c>
     </row>
@@ -5398,43 +5465,43 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E28" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F28" t="n">
         <v>17</v>
       </c>
       <c r="G28" t="n">
-        <v>0.622</v>
+        <v>0.63</v>
       </c>
       <c r="H28" t="n">
         <v>49</v>
       </c>
       <c r="I28" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="J28" t="n">
-        <v>83.40000000000001</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L28" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M28" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="N28" t="n">
-        <v>0.365</v>
+        <v>0.369</v>
       </c>
       <c r="O28" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="P28" t="n">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="Q28" t="n">
         <v>0.767</v>
@@ -5443,22 +5510,22 @@
         <v>10</v>
       </c>
       <c r="S28" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="T28" t="n">
-        <v>43.9</v>
+        <v>43.8</v>
       </c>
       <c r="U28" t="n">
         <v>24.3</v>
       </c>
       <c r="V28" t="n">
-        <v>14.3</v>
+        <v>14.5</v>
       </c>
       <c r="W28" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X28" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y28" t="n">
         <v>4.8</v>
@@ -5473,31 +5540,31 @@
         <v>101.4</v>
       </c>
       <c r="AC28" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AD28" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AE28" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AF28" t="n">
         <v>10</v>
       </c>
       <c r="AG28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI28" t="n">
         <v>12</v>
       </c>
       <c r="AJ28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK28" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AL28" t="n">
         <v>11</v>
@@ -5509,10 +5576,10 @@
         <v>7</v>
       </c>
       <c r="AO28" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AP28" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AQ28" t="n">
         <v>11</v>
@@ -5521,16 +5588,16 @@
         <v>25</v>
       </c>
       <c r="AS28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT28" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
       </c>
       <c r="AV28" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AW28" t="n">
         <v>16</v>
@@ -5542,10 +5609,10 @@
         <v>15</v>
       </c>
       <c r="AZ28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB28" t="n">
         <v>15</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-27-2014-15</t>
+          <t>2015-01-27</t>
         </is>
       </c>
     </row>
@@ -5580,25 +5647,25 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E29" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F29" t="n">
         <v>15</v>
       </c>
       <c r="G29" t="n">
-        <v>0.667</v>
+        <v>0.659</v>
       </c>
       <c r="H29" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I29" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="J29" t="n">
-        <v>84.5</v>
+        <v>84.8</v>
       </c>
       <c r="K29" t="n">
         <v>0.456</v>
@@ -5607,25 +5674,25 @@
         <v>8.699999999999999</v>
       </c>
       <c r="M29" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="N29" t="n">
         <v>0.346</v>
       </c>
       <c r="O29" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="P29" t="n">
-        <v>25.5</v>
+        <v>25.3</v>
       </c>
       <c r="Q29" t="n">
         <v>0.779</v>
       </c>
       <c r="R29" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="S29" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="T29" t="n">
         <v>42</v>
@@ -5646,40 +5713,40 @@
         <v>5.2</v>
       </c>
       <c r="Z29" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AA29" t="n">
         <v>21.8</v>
       </c>
       <c r="AB29" t="n">
-        <v>105.7</v>
+        <v>105.8</v>
       </c>
       <c r="AC29" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="AD29" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="AE29" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AF29" t="n">
         <v>7</v>
       </c>
       <c r="AG29" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI29" t="n">
         <v>8</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>9</v>
       </c>
       <c r="AJ29" t="n">
         <v>12</v>
       </c>
       <c r="AK29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL29" t="n">
         <v>9</v>
@@ -5688,25 +5755,25 @@
         <v>9</v>
       </c>
       <c r="AN29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO29" t="n">
         <v>3</v>
       </c>
       <c r="AP29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS29" t="n">
         <v>26</v>
       </c>
       <c r="AT29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AU29" t="n">
         <v>19</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-27-2014-15</t>
+          <t>2015-01-27</t>
         </is>
       </c>
     </row>
@@ -5840,13 +5907,13 @@
         <v>-2.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE30" t="n">
         <v>22</v>
       </c>
       <c r="AF30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG30" t="n">
         <v>24</v>
@@ -5870,7 +5937,7 @@
         <v>17</v>
       </c>
       <c r="AN30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO30" t="n">
         <v>17</v>
@@ -5882,7 +5949,7 @@
         <v>17</v>
       </c>
       <c r="AR30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS30" t="n">
         <v>23</v>
@@ -5903,7 +5970,7 @@
         <v>5</v>
       </c>
       <c r="AY30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ30" t="n">
         <v>5</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-27-2014-15</t>
+          <t>2015-01-27</t>
         </is>
       </c>
     </row>
@@ -5944,76 +6011,76 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E31" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F31" t="n">
         <v>15</v>
       </c>
       <c r="G31" t="n">
-        <v>0.674</v>
+        <v>0.667</v>
       </c>
       <c r="H31" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I31" t="n">
         <v>39.1</v>
       </c>
       <c r="J31" t="n">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="K31" t="n">
-        <v>0.476</v>
+        <v>0.475</v>
       </c>
       <c r="L31" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="M31" t="n">
         <v>15.8</v>
       </c>
       <c r="N31" t="n">
-        <v>0.377</v>
+        <v>0.379</v>
       </c>
       <c r="O31" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="P31" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.738</v>
+        <v>0.74</v>
       </c>
       <c r="R31" t="n">
         <v>10.3</v>
       </c>
       <c r="S31" t="n">
-        <v>33.5</v>
+        <v>33.3</v>
       </c>
       <c r="T31" t="n">
-        <v>43.8</v>
+        <v>43.6</v>
       </c>
       <c r="U31" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="V31" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W31" t="n">
         <v>7.6</v>
       </c>
       <c r="X31" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y31" t="n">
         <v>4.2</v>
       </c>
       <c r="Z31" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA31" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB31" t="n">
         <v>99.90000000000001</v>
@@ -6022,10 +6089,10 @@
         <v>2.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE31" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AF31" t="n">
         <v>7</v>
@@ -6034,7 +6101,7 @@
         <v>7</v>
       </c>
       <c r="AH31" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI31" t="n">
         <v>6</v>
@@ -6043,7 +6110,7 @@
         <v>20</v>
       </c>
       <c r="AK31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL31" t="n">
         <v>26</v>
@@ -6061,28 +6128,28 @@
         <v>25</v>
       </c>
       <c r="AQ31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR31" t="n">
         <v>22</v>
       </c>
       <c r="AS31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW31" t="n">
         <v>14</v>
       </c>
       <c r="AX31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY31" t="n">
         <v>7</v>
@@ -6091,7 +6158,7 @@
         <v>18</v>
       </c>
       <c r="BA31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB31" t="n">
         <v>17</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-27-2014-15</t>
+          <t>2015-01-27</t>
         </is>
       </c>
     </row>
